--- a/Cartas_Matriz_Gabarito_Game_Of_Selects.xlsx
+++ b/Cartas_Matriz_Gabarito_Game_Of_Selects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/emmily_jesus_sptech_school/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{F06D4CDD-0CAE-4A37-80D2-0B798FF6ABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CE3AE2-F5F1-436A-9D40-BD096E7F1175}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96C1504-908B-4998-B9EA-9248DA35DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9311D172-BD3F-4CF1-B3BB-28AA954A7D86}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cartas.xlsx" sheetId="1" r:id="rId1"/>
     <sheet name="matriz" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,27 +37,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
-  <si>
-    <t>Conteúdo do Select</t>
-  </si>
-  <si>
-    <t>Fácil</t>
-  </si>
-  <si>
-    <t>Challenge</t>
-  </si>
-  <si>
-    <t>Difícil</t>
-  </si>
-  <si>
-    <t>TUDO</t>
-  </si>
-  <si>
-    <t>Médio</t>
-  </si>
-  <si>
-    <t>Nível de dificuldade do Select</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GRUPO: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEATRIZ MARQUES, EMMILY FERREIRA, GUILHERME MENDES, PAULO VINÍCIUS E RYAN MIRANDA</t>
+    </r>
+  </si>
+  <si>
+    <t>ID
+Pergunta</t>
   </si>
   <si>
     <r>
@@ -78,21 +88,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>NÃO MOSTRAR NA PLANILHA, APENAS FALE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pontos </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Meu adversário ganha estes pontos se acertar a resposta da pergunta</t>
     </r>
   </si>
   <si>
@@ -154,16 +149,6 @@
     </r>
   </si>
   <si>
-    <t>Surpresa!</t>
-  </si>
-  <si>
-    <t>Com qual grupo eu já usei esse select?</t>
-  </si>
-  <si>
-    <t>ID
-Pergunta</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -187,36 +172,11 @@
     </r>
   </si>
   <si>
-    <t>- WHERE (com ou sem AND)
-- LIKE
-- ORDER BY
-- ASC/DESC</t>
-  </si>
-  <si>
-    <t>- JOIN
-- FUNÇÕES MATEMÁTICAS (COUNT, AVG, MAX, MIN)</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>- Mais de 1 JOIN
-- GROUP BY
-- LEFT JOIN
-- RIGHT JOIN
-- SUBQUERY</t>
+    <t>Com qual grupo eu já usei esse select?</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">GRUPO: </t>
+      <t xml:space="preserve">Pontos </t>
     </r>
     <r>
       <rPr>
@@ -226,7 +186,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BEATRIZ MARQUES, EMMILY FERREIRA, GUILHERME MENDES, PAULO VINÍCIUS E RYAN MIRANDA</t>
+      <t>- Meu adversário ganha estes pontos se acertar a resposta da pergunta</t>
     </r>
   </si>
   <si>
@@ -236,26 +196,107 @@
     <t>SELECT nome FROM cidade ORDER BY nome ASC;</t>
   </si>
   <si>
+    <t>Fácil</t>
+  </si>
+  <si>
+    <t>Surpresa!</t>
+  </si>
+  <si>
+    <t>Encontre os vilões que pertencem à cidade de Coast City.</t>
+  </si>
+  <si>
     <t>SELECT nome FROM vilao WHERE fkCidade = 1;</t>
   </si>
   <si>
+    <t>Liste os nomes dos heróis em ordem decrescente de identificação.</t>
+  </si>
+  <si>
     <t>SELECT nome FROM heroi ORDER BY idHeroi DESC;</t>
   </si>
   <si>
-    <t>Liste os nomes dos heróis em ordem decrescente de identificação.</t>
-  </si>
-  <si>
     <t>Quais cidades possuem nomes que começam com a letra 'G'?</t>
   </si>
   <si>
     <t>SELECT nome FROM cidade WHERE nome LIKE 'G%';</t>
+  </si>
+  <si>
+    <t>Selecione uma cidade que comece com uma determinada letra e acabe com outra</t>
+  </si>
+  <si>
+    <t>SELECT nome FROM cidade WHERE nome LIKE 'C%' AND nome LIKE '%y';</t>
+  </si>
+  <si>
+    <t>Mostre as identidades secretas dos heróis de Coast City.</t>
+  </si>
+  <si>
+    <t>SELECT identidadeSecreta FROM heroi WHERE fkCidade = 1;</t>
+  </si>
+  <si>
+    <t>Selecione o nome dos vilões que tenham a palavra "filho" na sua historia ordenador em ordem decrecente</t>
+  </si>
+  <si>
+    <t>SELECT nome FROM vilao WHERE historia LIKE '%filho%' ORDER BY nome DESC;</t>
+  </si>
+  <si>
+    <t>Selecione o nome dos vilões e sua indentidade secreta, ordene os vilões por ordem alfabética de identidade secreta.</t>
+  </si>
+  <si>
+    <t>SELECT nome, identidadeSecreta FROM vilao ORDER BY identidadeSecreta ASC;</t>
+  </si>
+  <si>
+    <t>Quais são as descrições das cidades que contêm a palavra "crime"?</t>
+  </si>
+  <si>
+    <t>SELECT descricao FROM cidade WHERE descricao LIKE '%crime%';</t>
+  </si>
+  <si>
+    <t>Selecione o nome dos poderes orndenador em ordem crescente</t>
+  </si>
+  <si>
+    <t>SELECT nomePoder FROM poderes ORDER BY nomePoder ASC;</t>
+  </si>
+  <si>
+    <t>Selecione a descrição dos poderes que tenha a palavra "sua"</t>
+  </si>
+  <si>
+    <t>SELECT descricao FROM poderes WHERE descricao LIKE '%sua%' ORDER BY descricao DESC;</t>
+  </si>
+  <si>
+    <t>Selecione o nome, identidade secreta e historia dos vilões ordenado pelo nome em ordem crescente</t>
+  </si>
+  <si>
+    <t>SELECT nome, identidadeSecreta, historia FROM vilao ORDER BY nome ASC;</t>
+  </si>
+  <si>
+    <t>Selecione o nome dos poderes que começam com a letra F ordenado pela descrição do poder em ordem decrecente</t>
+  </si>
+  <si>
+    <t>SELECT nomePoder FROM poderes WHERE nomePoder LIKE 'F%' ORDER BY descricao DESC;</t>
+  </si>
+  <si>
+    <t>Selecione todas as descrições de cidades que não contenham a palavra "crime"</t>
+  </si>
+  <si>
+    <t>SELECT descricao FROM cidade WHERE descricao NOT LIKE '%crime%';</t>
+  </si>
+  <si>
+    <t>Selecione o nome e a identidade secreta dos heróis que possuem um parceiro</t>
+  </si>
+  <si>
+    <t>SELECT nome, identidadeSecreta FROM heroi WHERE fkParceiroH IS NOT NULL;</t>
+  </si>
+  <si>
+    <t>Qual é a média de poderes por herói?</t>
   </si>
   <si>
     <t>SELECT AVG(num_poderes) AS media_poderes
 FROM (SELECT COUNT(fkPoder) AS num_poderes FROM poderHeroi GROUP BY fkHeroi) AS contagem_poderes;</t>
   </si>
   <si>
-    <t>Qual é a média de poderes por herói?</t>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Liste o nome das cidades e a quantidade de herois em cada uma.</t>
   </si>
   <si>
     <t>SELECT cidade.nome, COUNT(heroi.fkCidade) AS num_herois
@@ -265,7 +306,13 @@
 ORDER BY num_herois DESC;</t>
   </si>
   <si>
-    <t>Liste o nome das cidades e a quantidade de herois em cada uma.</t>
+    <t>Quais são as cidades que não possuem vilões?</t>
+  </si>
+  <si>
+    <t>SELECT cidade.nome FROM cidade LEFT JOIN vilao ON cidade.idCidade = vilao.fkCidade WHERE vilao.idVilao IS NULL;</t>
+  </si>
+  <si>
+    <t>Liste as cidades com o número total de heróis e vilões que possuem.</t>
   </si>
   <si>
     <t>SELECT cidade.nome, COUNT(DISTINCT heroi.idHeroi) AS num_herois, COUNT(DISTINCT vilao.idVilao) AS num_viloes
@@ -275,41 +322,46 @@
 GROUP BY cidade.idCidade;</t>
   </si>
   <si>
-    <t>Liste as cidades com o número total de heróis e vilões que possuem.</t>
-  </si>
-  <si>
-    <t>SELECT identidadeSecreta FROM heroi WHERE fkCidade = 1;</t>
-  </si>
-  <si>
-    <t>SELECT cidade.nome FROM cidade LEFT JOIN vilao ON cidade.idCidade = vilao.fkCidade WHERE vilao.idVilao IS NULL;</t>
-  </si>
-  <si>
-    <t>Quais são as cidades que não possuem vilões?</t>
-  </si>
-  <si>
-    <t>SELECT nome, identidadeSecreta FROM vilao ORDER BY identidadeSecreta ASC;</t>
-  </si>
-  <si>
-    <t>Ordene os vilões por ordem alfabética de identidade secreta.</t>
-  </si>
-  <si>
-    <t>SELECT descricao FROM cidade WHERE descricao LIKE '%crime%';</t>
-  </si>
-  <si>
-    <t>Quais são as descrições das cidades que contêm a palavra "crime"?</t>
-  </si>
-  <si>
-    <t>Encontre os vilões que pertencem à cidade de Coast City.</t>
-  </si>
-  <si>
-    <t>Mostre as identidades secretas dos heróis de Coast City.</t>
+    <t>Difícil</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Nível de dificuldade do Select</t>
+  </si>
+  <si>
+    <t>Conteúdo do Select</t>
+  </si>
+  <si>
+    <t>- WHERE (com ou sem AND)
+- LIKE
+- ORDER BY
+- ASC/DESC</t>
+  </si>
+  <si>
+    <t>- JOIN
+- FUNÇÕES MATEMÁTICAS (COUNT, AVG, MAX, MIN)</t>
+  </si>
+  <si>
+    <t>- Mais de 1 JOIN
+- GROUP BY
+- LEFT JOIN
+- RIGHT JOIN
+- SUBQUERY</t>
+  </si>
+  <si>
+    <t>TUDO</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +408,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -377,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -402,38 +471,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -456,56 +503,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,50 +778,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1051646</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>883987</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51217502-5C44-6C2B-2FA9-882583C74E5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6294120" y="7239000"/>
-          <a:ext cx="990686" cy="769687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -817,7 +802,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -861,7 +846,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -905,7 +890,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -949,7 +934,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -993,7 +978,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1010,11 +995,434 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990686</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>769687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D92C9D5-F4FE-45A7-8A23-3EFFF4C78A56}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8526455F-150F-403D-3876-1C8C39B8A86E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="15954375"/>
+          <a:ext cx="990686" cy="769687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3333EC-FD12-4240-BA08-6EBDF0BDE67F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8EAFF1B0-1B50-716F-014D-7614417FD4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="5895975"/>
+          <a:ext cx="1143000" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DE3408-7E1C-513D-9DBC-DD1DAAFC59F4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6E3333EC-FD12-4240-BA08-6EBDF0BDE67F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="7343775"/>
+          <a:ext cx="1457325" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3143250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC89E5DA-6A12-2C99-BC0F-BA64D2FEBDFB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C1DE3408-7E1C-513D-9DBC-DD1DAAFC59F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="9953625"/>
+          <a:ext cx="1524000" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2981325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BBEA55-1072-72DD-2E93-2DA3DA5C23C7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AC89E5DA-6A12-2C99-BC0F-BA64D2FEBDFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="13239750"/>
+          <a:ext cx="2981325" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2507D9FE-12C5-F198-C8E6-73A2EA4852AD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{55BBEA55-1072-72DD-2E93-2DA3DA5C23C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="14363700"/>
+          <a:ext cx="4572000" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A335282E-1C8E-63CB-4428-3656B085B142}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2507D9FE-12C5-F198-C8E6-73A2EA4852AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="15335250"/>
+          <a:ext cx="1362075" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5873F3A4-1E6C-6157-CF92-BAC43B80E684}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A335282E-1C8E-63CB-4428-3656B085B142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="16106775"/>
+          <a:ext cx="2781300" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE6F44B-74E9-AC63-669B-3EB1D65220ED}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5873F3A4-1E6C-6157-CF92-BAC43B80E684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="17497425"/>
+          <a:ext cx="1866900" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1312,579 +1720,612 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC23502-0A7C-4E91-A919-706747D674F7}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="36.6" customHeight="1">
       <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" ht="91.5">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="114.6" customHeight="1">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57" customHeight="1">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="134.44999999999999" customHeight="1">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" customHeight="1">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="58.5" customHeight="1">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="55.9" customHeight="1">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="81" customHeight="1">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="79.150000000000006" customHeight="1">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45.75">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="258.75" customHeight="1">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="88.5" customHeight="1">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="109.5" customHeight="1">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45.75">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60.6" customHeight="1">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="121.15" customHeight="1">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="63" customHeight="1">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="120.6" customHeight="1">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="E7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="B28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="74.25" customHeight="1">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="8"/>
       <c r="G34" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
     </row>
   </sheetData>
@@ -1905,52 +2346,52 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
@@ -1979,15 +2420,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100678EE90E01C1554D81095FA0DFA567B7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad20f136f71ea548219d3a7a52503728">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e7a52f9-5c66-44a9-86f3-38766607b952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b65db06b658092b813a66aef73678717" ns3:_="">
     <xsd:import namespace="3e7a52f9-5c66-44a9-86f3-38766607b952"/>
@@ -2175,44 +2607,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC28E986-3D39-4A72-9A7E-76CA80DD27C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3e7a52f9-5c66-44a9-86f3-38766607b952"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC28E986-3D39-4A72-9A7E-76CA80DD27C2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C68403CA-4AC7-4BC9-88AD-93B8020F187C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D38AF712-6087-4222-9719-8324283E716A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D38AF712-6087-4222-9719-8324283E716A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e7a52f9-5c66-44a9-86f3-38766607b952"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C68403CA-4AC7-4BC9-88AD-93B8020F187C}"/>
 </file>
--- a/Cartas_Matriz_Gabarito_Game_Of_Selects.xlsx
+++ b/Cartas_Matriz_Gabarito_Game_Of_Selects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/emmily_jesus_sptech_school/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96C1504-908B-4998-B9EA-9248DA35DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7FC1DB-D169-4E73-AA07-A98A6CF5FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9311D172-BD3F-4CF1-B3BB-28AA954A7D86}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <r>
       <rPr>
@@ -312,6 +312,48 @@
     <t>SELECT cidade.nome FROM cidade LEFT JOIN vilao ON cidade.idCidade = vilao.fkCidade WHERE vilao.idVilao IS NULL;</t>
   </si>
   <si>
+    <t>Quantos heróis têm parceiros e quantos não têm?</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT h.idHeroi) AS 'Herois Com Parceiros', COUNT(DISTINCT h2.idHeroi) AS ' Herois Sem Parceiros' FROM heroi as h LEFT JOIN heroi as h2 ON h.idHeroi = h2.fkParceiroH;</t>
+  </si>
+  <si>
+    <t>Quantos vilões têm o poder de manipular água?</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT v.idVilao) AS NumViloesManipulamAgua FROM vilao as v JOIN poderVilao as pv ON v.idVilao = pv.fkVilao JOIN poderes as p ON pv.fkPoder = p.idPoder WHERE p.nomePoder = 'Manipular água';</t>
+  </si>
+  <si>
+    <t>Quantos combates terminaram em empate (sem vencedor)?</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS NumEmpates FROM combate WHERE vencedor IS NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qual é a cidade com mais vilões?</t>
+  </si>
+  <si>
+    <t>SELECT c.nome AS 'Nome da Cidade', COUNT(v.idVilao) AS 'Qtd Vilões' FROM cidade as c LEFT JOIN vilao as v ON c.idCidade = v.fkCidade GROUP BY c.idCidade;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qual o número de heróis por cidade?</t>
+  </si>
+  <si>
+    <t>SELECT c.nome as Cidade, COUNT(h.idHeroi) as NumHerois FROM cidade as c LEFT JOIN heroi as h ON c.idCidade = h.fkCidade GROUP BY c.idCidade;</t>
+  </si>
+  <si>
+    <t>Quais vilões não têm parceiros?</t>
+  </si>
+  <si>
+    <t>SELECT v.nome as Vilao FROM vilao as v LEFT JOIN heroi as h ON v.idVilao = h.fkParceiroV WHERE h.fkParceiroV IS NULL;</t>
+  </si>
+  <si>
+    <t>Quais são os vilões sem poderes registrados?</t>
+  </si>
+  <si>
+    <t>SELECT v.nome as Vilao FROM vilao as v LEFT JOIN poderVilao as pv ON v.idVilao = pv.fkVilao WHERE pv.fkPoder IS NULL;</t>
+  </si>
+  <si>
     <t>Liste as cidades com o número total de heróis e vilões que possuem.</t>
   </si>
   <si>
@@ -325,7 +367,25 @@
     <t>Difícil</t>
   </si>
   <si>
+    <t xml:space="preserve">Quais são os heróis que nunca participaram de combates? </t>
+  </si>
+  <si>
+    <t>SELECT h.nome as Heroi FROM heroi as h LEFT JOIN combate as c ON h.idHeroi = c.fkHeroi WHERE c.idCombate IS NULL;</t>
+  </si>
+  <si>
+    <t>Selecione a quantidade de herois que tem o poder "Super Força"</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(h.idHeroi) AS QtdHeroisSuperForca FROM heroi AS h JOIN poderHeroi AS ph ON h.idHeroi = ph.fkHeroi JOIN poderes AS p ON ph.fkPoder = p.idPoder WHERE p.nomePoder = 'Super Força' GROUP BY p.nomePoder;</t>
+  </si>
+  <si>
     <t>Challenge</t>
+  </si>
+  <si>
+    <t>Selecione o nome dos herois, o nome de suas cidades, o nome de seus poderes, o nome dos vilões que eles enfrentaram em combate e o resultado do combate derrota ou vitoria (vilão ou heroi)</t>
+  </si>
+  <si>
+    <t>SELECT heroi.nome AS NomeHeroi, cidade.nome AS NomeCidade, poderes.nomePoder AS NomePoder, vilao.nome AS NomeVilao, combate.vencedor AS ResultadoCombate FROM combate JOIN heroi ON combate.fkHeroi = heroi.idHeroi JOIN cidade ON heroi.fkCidade = cidade.idCidade JOIN poderHeroi ON heroi.idHeroi = poderHeroi.fkHeroi JOIN poderes ON poderHeroi.fkPoder = poderes.idPoder LEFT JOIN vilao ON combate.fkVilao = vilao.idVilao ORDER BY NomeHeroi, NomeCidade, NomePoder;</t>
   </si>
   <si>
     <t>Nível de dificuldade do Select</t>
@@ -488,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,6 +562,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,6 +1473,476 @@
         <a:xfrm>
           <a:off x="6057900" y="17497425"/>
           <a:ext cx="1866900" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2867025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C4044E-1B30-0FCF-F183-F8EF000D3264}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4AE6F44B-74E9-AC63-669B-3EB1D65220ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="25984200"/>
+          <a:ext cx="2209800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4581525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2038541-A437-4B9C-DAB4-7BFBD6886AB1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{02C4044E-1B30-0FCF-F183-F8EF000D3264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="27108150"/>
+          <a:ext cx="4572000" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2590800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagem 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6249EE6E-1D51-7842-F7B2-3DC0298C1B9D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D2038541-A437-4B9C-DAB4-7BFBD6886AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="21421725"/>
+          <a:ext cx="2590800" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagem 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682371E5-E20E-5365-DB3F-7505AE4756DD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6249EE6E-1D51-7842-F7B2-3DC0298C1B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="22193250"/>
+          <a:ext cx="1866900" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagem 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C3C124-DE1A-8D7F-53B1-ECE0CEC81144}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{682371E5-E20E-5365-DB3F-7505AE4756DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="23164800"/>
+          <a:ext cx="1247775" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1619250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagem 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CDE4DA-EB32-5262-18AC-90CF12BB90B9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{18C3C124-DE1A-8D7F-53B1-ECE0CEC81144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="23793450"/>
+          <a:ext cx="1866900" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagem 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF339F03-884F-517D-5DB8-DBD189C59234}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C8CDE4DA-EB32-5262-18AC-90CF12BB90B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="25527000"/>
+          <a:ext cx="1600200" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1590675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagem 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AD93E4-C072-172C-8037-EFC7C7C3D0D8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BF339F03-884F-517D-5DB8-DBD189C59234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="27012900"/>
+          <a:ext cx="1847850" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagem 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E46F50-1899-4F19-38F9-18E0FF77F21E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{03AD93E4-C072-172C-8037-EFC7C7C3D0D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="28717875"/>
+          <a:ext cx="857250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1038225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagem 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66B9F79-3B62-6283-9F45-FFB88EBC0883}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{94E46F50-1899-4F19-38F9-18E0FF77F21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="30822900"/>
+          <a:ext cx="1285875" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC23502-0A7C-4E91-A919-706747D674F7}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1736,596 +2269,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="91.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="114.6" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="57" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="134.44999999999999" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="58.5" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="55.9" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="81" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="79.150000000000006" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45.75">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="258.75" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="88.5" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="76.5" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60.75">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="109.5" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45.75">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60.6" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="121.15" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="63" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="8">
+    <row r="21" spans="1:7" ht="60.75">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="8" t="s">
+      <c r="B21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="8">
+    <row r="22" spans="1:7" ht="76.5">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="8" t="s">
+      <c r="B22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="8">
+    <row r="23" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="8" t="s">
+      <c r="B23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="8">
+    <row r="24" spans="1:7" ht="136.5" customHeight="1">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="8" t="s">
+      <c r="B24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="8">
+    <row r="25" spans="1:7" ht="117" customHeight="1">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="8" t="s">
+      <c r="B25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="8">
+    <row r="26" spans="1:7" ht="134.25" customHeight="1">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="8" t="s">
+      <c r="B26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="8">
+    <row r="27" spans="1:7" ht="45.75">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="8" t="s">
+      <c r="B27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="120.6" customHeight="1">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9" t="s">
+      <c r="B28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="74.25" customHeight="1">
-      <c r="A29" s="8">
+    <row r="29" spans="1:7" ht="88.5" customHeight="1">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9" t="s">
+      <c r="B29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15">
-      <c r="A32" s="8">
+    <row r="32" spans="1:7" ht="98.25" customHeight="1">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9" t="s">
+      <c r="B32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="8">
+    <row r="34" spans="1:7" ht="152.25">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9" t="s">
+      <c r="B34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="1"/>
     </row>
   </sheetData>
@@ -2357,7 +2930,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -2366,32 +2939,32 @@
         <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
